--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.859580666666667</v>
+        <v>1.164555333333333</v>
       </c>
       <c r="H2">
-        <v>5.578742</v>
+        <v>3.493666</v>
       </c>
       <c r="I2">
-        <v>0.09135611778511415</v>
+        <v>0.05923394707027321</v>
       </c>
       <c r="J2">
-        <v>0.09135611778511415</v>
+        <v>0.05923394707027322</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07823633333333334</v>
+        <v>0.002858666666666667</v>
       </c>
       <c r="N2">
-        <v>0.234709</v>
+        <v>0.008576</v>
       </c>
       <c r="O2">
-        <v>0.07325462794193288</v>
+        <v>0.002669495535069502</v>
       </c>
       <c r="P2">
-        <v>0.07325462794193288</v>
+        <v>0.002669495535069501</v>
       </c>
       <c r="Q2">
-        <v>0.1454867728975556</v>
+        <v>0.003329075512888889</v>
       </c>
       <c r="R2">
-        <v>1.309380956078</v>
+        <v>0.029961679616</v>
       </c>
       <c r="S2">
-        <v>0.006692258418567935</v>
+        <v>0.0001581247572286375</v>
       </c>
       <c r="T2">
-        <v>0.006692258418567935</v>
+        <v>0.0001581247572286375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.164555333333333</v>
+      </c>
+      <c r="H3">
+        <v>3.493666</v>
+      </c>
+      <c r="I3">
+        <v>0.05923394707027321</v>
+      </c>
+      <c r="J3">
+        <v>0.05923394707027322</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>1.859580666666667</v>
-      </c>
-      <c r="H3">
-        <v>5.578742</v>
-      </c>
-      <c r="I3">
-        <v>0.09135611778511415</v>
-      </c>
-      <c r="J3">
-        <v>0.09135611778511415</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0.9897689999999999</v>
+        <v>0.07823633333333334</v>
       </c>
       <c r="N3">
-        <v>2.969307</v>
+        <v>0.234709</v>
       </c>
       <c r="O3">
-        <v>0.9267453720580671</v>
+        <v>0.07305907503971872</v>
       </c>
       <c r="P3">
-        <v>0.9267453720580671</v>
+        <v>0.0730590750397187</v>
       </c>
       <c r="Q3">
-        <v>1.840555296866</v>
+        <v>0.09111053924377779</v>
       </c>
       <c r="R3">
-        <v>16.564997671794</v>
+        <v>0.819994853194</v>
       </c>
       <c r="S3">
-        <v>0.08466385936654622</v>
+        <v>0.004327577383905817</v>
       </c>
       <c r="T3">
-        <v>0.08466385936654622</v>
+        <v>0.004327577383905817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.79119133333334</v>
+        <v>1.164555333333333</v>
       </c>
       <c r="H4">
-        <v>32.373574</v>
+        <v>3.493666</v>
       </c>
       <c r="I4">
-        <v>0.5301417487077033</v>
+        <v>0.05923394707027321</v>
       </c>
       <c r="J4">
-        <v>0.5301417487077033</v>
+        <v>0.05923394707027322</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07823633333333334</v>
+        <v>0.989769</v>
       </c>
       <c r="N4">
-        <v>0.234709</v>
+        <v>2.969307</v>
       </c>
       <c r="O4">
-        <v>0.07325462794193288</v>
+        <v>0.9242714294252118</v>
       </c>
       <c r="P4">
-        <v>0.07325462794193288</v>
+        <v>0.9242714294252118</v>
       </c>
       <c r="Q4">
-        <v>0.8442632422184446</v>
+        <v>1.152640767718</v>
       </c>
       <c r="R4">
-        <v>7.598369179966001</v>
+        <v>10.373766909462</v>
       </c>
       <c r="S4">
-        <v>0.03883533655806848</v>
+        <v>0.05474824492913876</v>
       </c>
       <c r="T4">
-        <v>0.03883533655806848</v>
+        <v>0.05474824492913877</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>32.373574</v>
       </c>
       <c r="I5">
-        <v>0.5301417487077033</v>
+        <v>0.5488831985632208</v>
       </c>
       <c r="J5">
-        <v>0.5301417487077033</v>
+        <v>0.5488831985632209</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9897689999999999</v>
+        <v>0.002858666666666667</v>
       </c>
       <c r="N5">
-        <v>2.969307</v>
+        <v>0.008576</v>
       </c>
       <c r="O5">
-        <v>0.9267453720580671</v>
+        <v>0.002669495535069502</v>
       </c>
       <c r="P5">
-        <v>0.9267453720580671</v>
+        <v>0.002669495535069501</v>
       </c>
       <c r="Q5">
-        <v>10.680786654802</v>
+        <v>0.03084841895822223</v>
       </c>
       <c r="R5">
-        <v>96.12707989321801</v>
+        <v>0.2776357706240001</v>
       </c>
       <c r="S5">
-        <v>0.4913064121496347</v>
+        <v>0.001465241247839185</v>
       </c>
       <c r="T5">
-        <v>0.4913064121496347</v>
+        <v>0.001465241247839185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.704522333333333</v>
+        <v>10.79119133333334</v>
       </c>
       <c r="H6">
-        <v>23.113567</v>
+        <v>32.373574</v>
       </c>
       <c r="I6">
-        <v>0.3785021335071827</v>
+        <v>0.5488831985632208</v>
       </c>
       <c r="J6">
-        <v>0.3785021335071827</v>
+        <v>0.5488831985632209</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>0.234709</v>
       </c>
       <c r="O6">
-        <v>0.07325462794193288</v>
+        <v>0.07305907503971872</v>
       </c>
       <c r="P6">
-        <v>0.07325462794193288</v>
+        <v>0.0730590750397187</v>
       </c>
       <c r="Q6">
-        <v>0.6027735774447778</v>
+        <v>0.8442632422184446</v>
       </c>
       <c r="R6">
-        <v>5.424962197003</v>
+        <v>7.598369179966001</v>
       </c>
       <c r="S6">
-        <v>0.02772703296529648</v>
+        <v>0.04010089879187118</v>
       </c>
       <c r="T6">
-        <v>0.02772703296529648</v>
+        <v>0.04010089879187118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.704522333333333</v>
+        <v>10.79119133333334</v>
       </c>
       <c r="H7">
-        <v>23.113567</v>
+        <v>32.373574</v>
       </c>
       <c r="I7">
-        <v>0.3785021335071827</v>
+        <v>0.5488831985632208</v>
       </c>
       <c r="J7">
-        <v>0.3785021335071827</v>
+        <v>0.5488831985632209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9897689999999999</v>
+        <v>0.989769</v>
       </c>
       <c r="N7">
         <v>2.969307</v>
       </c>
       <c r="O7">
-        <v>0.9267453720580671</v>
+        <v>0.9242714294252118</v>
       </c>
       <c r="P7">
-        <v>0.9267453720580671</v>
+        <v>0.9242714294252118</v>
       </c>
       <c r="Q7">
-        <v>7.625697365340999</v>
+        <v>10.680786654802</v>
       </c>
       <c r="R7">
-        <v>68.63127628806899</v>
+        <v>96.12707989321802</v>
       </c>
       <c r="S7">
-        <v>0.3507751005418862</v>
+        <v>0.5073170585235104</v>
       </c>
       <c r="T7">
-        <v>0.3507751005418862</v>
+        <v>0.5073170585235105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.704522333333333</v>
+      </c>
+      <c r="H8">
+        <v>23.113567</v>
+      </c>
+      <c r="I8">
+        <v>0.391882854366506</v>
+      </c>
+      <c r="J8">
+        <v>0.3918828543665061</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.002858666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.008576</v>
+      </c>
+      <c r="O8">
+        <v>0.002669495535069502</v>
+      </c>
+      <c r="P8">
+        <v>0.002669495535069501</v>
+      </c>
+      <c r="Q8">
+        <v>0.02202466117688889</v>
+      </c>
+      <c r="R8">
+        <v>0.198221950592</v>
+      </c>
+      <c r="S8">
+        <v>0.00104612953000168</v>
+      </c>
+      <c r="T8">
+        <v>0.00104612953000168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.704522333333333</v>
+      </c>
+      <c r="H9">
+        <v>23.113567</v>
+      </c>
+      <c r="I9">
+        <v>0.391882854366506</v>
+      </c>
+      <c r="J9">
+        <v>0.3918828543665061</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.07823633333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.234709</v>
+      </c>
+      <c r="O9">
+        <v>0.07305907503971872</v>
+      </c>
+      <c r="P9">
+        <v>0.0730590750397187</v>
+      </c>
+      <c r="Q9">
+        <v>0.6027735774447778</v>
+      </c>
+      <c r="R9">
+        <v>5.424962197003</v>
+      </c>
+      <c r="S9">
+        <v>0.02863059886394172</v>
+      </c>
+      <c r="T9">
+        <v>0.02863059886394172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.704522333333333</v>
+      </c>
+      <c r="H10">
+        <v>23.113567</v>
+      </c>
+      <c r="I10">
+        <v>0.391882854366506</v>
+      </c>
+      <c r="J10">
+        <v>0.3918828543665061</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.989769</v>
+      </c>
+      <c r="N10">
+        <v>2.969307</v>
+      </c>
+      <c r="O10">
+        <v>0.9242714294252118</v>
+      </c>
+      <c r="P10">
+        <v>0.9242714294252118</v>
+      </c>
+      <c r="Q10">
+        <v>7.625697365341</v>
+      </c>
+      <c r="R10">
+        <v>68.631276288069</v>
+      </c>
+      <c r="S10">
+        <v>0.3622061259725626</v>
+      </c>
+      <c r="T10">
+        <v>0.3622061259725626</v>
       </c>
     </row>
   </sheetData>
